--- a/Data/SampleList.xlsx
+++ b/Data/SampleList.xlsx
@@ -1,19 +1,22 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10917"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\EJO\EJO\Ed\RESEARCH\COMPASS\TEMPEST\Salinity experiment\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myer056/GitHub/tempest_ionic_strength/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CF922D1E-5E38-4BF5-B2D1-C1F5E189C81B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE7CAB3-64C6-7946-B98D-D98928048366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{CD2106DC-15C8-495D-8D19-EEA12ED135EC}"/>
+    <workbookView xWindow="580" yWindow="-21100" windowWidth="31140" windowHeight="16500" activeTab="3" xr2:uid="{CD2106DC-15C8-495D-8D19-EEA12ED135EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample List" sheetId="8" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="10" r:id="rId2"/>
+    <sheet name="TOC sample list 1" sheetId="9" r:id="rId3"/>
+    <sheet name="TOC sample list 2" sheetId="11" r:id="rId4"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm.Print_Area" localSheetId="0">'Sample List'!$B$3:$K$27</definedName>
@@ -39,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="252" uniqueCount="104">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="134">
   <si>
     <t>A</t>
   </si>
@@ -351,6 +354,96 @@
   </si>
   <si>
     <t>* The samples with absorbance values in red were filtered through a different brand of filter</t>
+  </si>
+  <si>
+    <t>Sample_ID</t>
+  </si>
+  <si>
+    <t>Vial Number</t>
+  </si>
+  <si>
+    <t>Cond</t>
+  </si>
+  <si>
+    <t>0 C</t>
+  </si>
+  <si>
+    <t>1ppm</t>
+  </si>
+  <si>
+    <t>10ppm</t>
+  </si>
+  <si>
+    <t>100ppm</t>
+  </si>
+  <si>
+    <t>0 N</t>
+  </si>
+  <si>
+    <t>1N</t>
+  </si>
+  <si>
+    <t>5N</t>
+  </si>
+  <si>
+    <t>blk</t>
+  </si>
+  <si>
+    <t>chk</t>
+  </si>
+  <si>
+    <t>0.A.1</t>
+  </si>
+  <si>
+    <t>0.B.1</t>
+  </si>
+  <si>
+    <t>0.C.1</t>
+  </si>
+  <si>
+    <t>0.A.2</t>
+  </si>
+  <si>
+    <t>0.B.2</t>
+  </si>
+  <si>
+    <t>0.C.2</t>
+  </si>
+  <si>
+    <t>0.A.3</t>
+  </si>
+  <si>
+    <t>0.B.3</t>
+  </si>
+  <si>
+    <t>0.C.3</t>
+  </si>
+  <si>
+    <t>0.A.6</t>
+  </si>
+  <si>
+    <t>0.B.6</t>
+  </si>
+  <si>
+    <t>0.C.6</t>
+  </si>
+  <si>
+    <t>0.A.5</t>
+  </si>
+  <si>
+    <t>0.B.5</t>
+  </si>
+  <si>
+    <t>0.C.5</t>
+  </si>
+  <si>
+    <t>0.A.4</t>
+  </si>
+  <si>
+    <t>0.B.4</t>
+  </si>
+  <si>
+    <t>0.C.4</t>
   </si>
 </sst>
 </file>
@@ -507,6 +600,55 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>381000</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>8</xdr:col>
+      <xdr:colOff>50800</xdr:colOff>
+      <xdr:row>28</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:pic>
+      <xdr:nvPicPr>
+        <xdr:cNvPr id="2" name="Picture 1">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{634E5323-8A2A-EC1B-A648-7FE6E19378F9}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvPicPr>
+          <a:picLocks noChangeAspect="1"/>
+        </xdr:cNvPicPr>
+      </xdr:nvPicPr>
+      <xdr:blipFill>
+        <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId1"/>
+        <a:stretch>
+          <a:fillRect/>
+        </a:stretch>
+      </xdr:blipFill>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="1206500" y="381000"/>
+          <a:ext cx="5448300" cy="4953000"/>
+        </a:xfrm>
+        <a:prstGeom prst="rect">
+          <a:avLst/>
+        </a:prstGeom>
+      </xdr:spPr>
+    </xdr:pic>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -811,48 +953,48 @@
   </sheetPr>
   <dimension ref="A3:AI29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G37" sqref="G37"/>
+    <sheetView topLeftCell="A10" workbookViewId="0">
+      <selection activeCell="A21" sqref="A21:A23"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="1" max="1" width="14.6640625" style="10" customWidth="1"/>
-    <col min="2" max="2" width="7.44140625" style="1" customWidth="1"/>
-    <col min="3" max="4" width="6.44140625" style="1" customWidth="1"/>
-    <col min="5" max="5" width="14.77734375" style="5" customWidth="1"/>
-    <col min="6" max="6" width="2.109375" style="2" customWidth="1"/>
+    <col min="2" max="2" width="7.5" style="1" customWidth="1"/>
+    <col min="3" max="4" width="6.5" style="1" customWidth="1"/>
+    <col min="5" max="5" width="14.83203125" style="5" customWidth="1"/>
+    <col min="6" max="6" width="2.1640625" style="2" customWidth="1"/>
     <col min="7" max="7" width="14.6640625" style="12" customWidth="1"/>
-    <col min="8" max="9" width="6.88671875" style="7" customWidth="1"/>
+    <col min="8" max="9" width="6.83203125" style="7" customWidth="1"/>
     <col min="10" max="10" width="6.33203125" style="7" customWidth="1"/>
-    <col min="11" max="11" width="14.77734375" style="8" customWidth="1"/>
-    <col min="12" max="12" width="2.109375" customWidth="1"/>
+    <col min="11" max="11" width="14.83203125" style="8" customWidth="1"/>
+    <col min="12" max="12" width="2.1640625" customWidth="1"/>
     <col min="13" max="13" width="14.6640625" style="14" customWidth="1"/>
-    <col min="14" max="14" width="7.44140625" customWidth="1"/>
+    <col min="14" max="14" width="7.5" customWidth="1"/>
     <col min="15" max="15" width="4.6640625" customWidth="1"/>
-    <col min="16" max="16" width="5.88671875" customWidth="1"/>
-    <col min="17" max="17" width="14.77734375" customWidth="1"/>
-    <col min="18" max="18" width="1.88671875" customWidth="1"/>
+    <col min="16" max="16" width="5.83203125" customWidth="1"/>
+    <col min="17" max="17" width="14.83203125" customWidth="1"/>
+    <col min="18" max="18" width="1.83203125" customWidth="1"/>
     <col min="19" max="19" width="14.6640625" style="12" customWidth="1"/>
-    <col min="20" max="20" width="7.44140625" style="15" customWidth="1"/>
+    <col min="20" max="20" width="7.5" style="15" customWidth="1"/>
     <col min="21" max="21" width="4.6640625" style="15" customWidth="1"/>
-    <col min="22" max="22" width="5.77734375" style="15" customWidth="1"/>
-    <col min="23" max="23" width="12.21875" style="15" customWidth="1"/>
-    <col min="24" max="24" width="1.88671875" customWidth="1"/>
+    <col min="22" max="22" width="5.83203125" style="15" customWidth="1"/>
+    <col min="23" max="23" width="12.1640625" style="15" customWidth="1"/>
+    <col min="24" max="24" width="1.83203125" customWidth="1"/>
     <col min="25" max="25" width="14.6640625" style="10" customWidth="1"/>
-    <col min="26" max="26" width="7.44140625" customWidth="1"/>
+    <col min="26" max="26" width="7.5" customWidth="1"/>
     <col min="27" max="27" width="4.6640625" customWidth="1"/>
-    <col min="28" max="28" width="5.77734375" customWidth="1"/>
-    <col min="29" max="29" width="12.21875" customWidth="1"/>
-    <col min="30" max="30" width="1.88671875" customWidth="1"/>
+    <col min="28" max="28" width="5.83203125" customWidth="1"/>
+    <col min="29" max="29" width="12.1640625" customWidth="1"/>
+    <col min="30" max="30" width="1.83203125" customWidth="1"/>
     <col min="31" max="31" width="14.6640625" style="12" customWidth="1"/>
-    <col min="32" max="32" width="7.44140625" style="15" customWidth="1"/>
+    <col min="32" max="32" width="7.5" style="15" customWidth="1"/>
     <col min="33" max="33" width="4.6640625" style="15" customWidth="1"/>
-    <col min="34" max="34" width="5.77734375" style="15" customWidth="1"/>
-    <col min="35" max="35" width="12.21875" style="15" customWidth="1"/>
+    <col min="34" max="34" width="5.83203125" style="15" customWidth="1"/>
+    <col min="35" max="35" width="12.1640625" style="15" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="3" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="3" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A3" s="9" t="s">
         <v>8</v>
       </c>
@@ -947,7 +1089,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="4" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A4" s="9"/>
       <c r="B4" s="1"/>
       <c r="C4" s="1"/>
@@ -980,7 +1122,7 @@
       <c r="AH4" s="7"/>
       <c r="AI4" s="8"/>
     </row>
-    <row r="5" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="5" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A5" s="9" t="s">
         <v>5</v>
       </c>
@@ -1058,7 +1200,7 @@
         <v>0.42330000000000001</v>
       </c>
       <c r="AE5" s="11" t="s">
-        <v>81</v>
+        <v>116</v>
       </c>
       <c r="AF5" s="7">
         <v>0</v>
@@ -1073,7 +1215,7 @@
         <v>0.6754</v>
       </c>
     </row>
-    <row r="6" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="6" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A6" s="9" t="s">
         <v>6</v>
       </c>
@@ -1141,7 +1283,7 @@
         <v>0.42799999999999999</v>
       </c>
       <c r="AE6" s="11" t="s">
-        <v>82</v>
+        <v>117</v>
       </c>
       <c r="AF6" s="7"/>
       <c r="AG6" s="7" t="s">
@@ -1154,7 +1296,7 @@
         <v>0.69520000000000004</v>
       </c>
     </row>
-    <row r="7" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="7" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A7" s="9" t="s">
         <v>7</v>
       </c>
@@ -1222,7 +1364,7 @@
         <v>0.40150000000000002</v>
       </c>
       <c r="AE7" s="11" t="s">
-        <v>83</v>
+        <v>118</v>
       </c>
       <c r="AF7" s="7"/>
       <c r="AG7" s="7" t="s">
@@ -1235,7 +1377,7 @@
         <v>0.57369999999999999</v>
       </c>
     </row>
-    <row r="8" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="8" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A8" s="9"/>
       <c r="B8" s="1"/>
       <c r="C8" s="1"/>
@@ -1268,7 +1410,7 @@
       <c r="AH8" s="7"/>
       <c r="AI8" s="8"/>
     </row>
-    <row r="9" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="9" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A9" s="9" t="s">
         <v>9</v>
       </c>
@@ -1346,7 +1488,7 @@
         <v>0.78380000000000005</v>
       </c>
       <c r="AE9" s="11" t="s">
-        <v>84</v>
+        <v>119</v>
       </c>
       <c r="AF9" s="7">
         <v>0</v>
@@ -1361,7 +1503,7 @@
         <v>0.63039999999999996</v>
       </c>
     </row>
-    <row r="10" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="10" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A10" s="9" t="s">
         <v>10</v>
       </c>
@@ -1429,7 +1571,7 @@
         <v>0.76339999999999997</v>
       </c>
       <c r="AE10" s="11" t="s">
-        <v>85</v>
+        <v>120</v>
       </c>
       <c r="AF10" s="7"/>
       <c r="AG10" s="7" t="s">
@@ -1442,7 +1584,7 @@
         <v>1.0037</v>
       </c>
     </row>
-    <row r="11" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="11" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A11" s="9" t="s">
         <v>11</v>
       </c>
@@ -1510,7 +1652,7 @@
         <v>0.78410000000000002</v>
       </c>
       <c r="AE11" s="11" t="s">
-        <v>86</v>
+        <v>121</v>
       </c>
       <c r="AF11" s="7"/>
       <c r="AG11" s="7" t="s">
@@ -1523,7 +1665,7 @@
         <v>0.64759999999999995</v>
       </c>
     </row>
-    <row r="12" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="12" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A12" s="9"/>
       <c r="B12" s="1"/>
       <c r="C12" s="1"/>
@@ -1556,7 +1698,7 @@
       <c r="AH12" s="7"/>
       <c r="AI12" s="8"/>
     </row>
-    <row r="13" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="13" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A13" s="9" t="s">
         <v>12</v>
       </c>
@@ -1634,7 +1776,7 @@
         <v>0.83720000000000006</v>
       </c>
       <c r="AE13" s="11" t="s">
-        <v>87</v>
+        <v>122</v>
       </c>
       <c r="AF13" s="7">
         <v>0</v>
@@ -1649,7 +1791,7 @@
         <v>0.63029999999999997</v>
       </c>
     </row>
-    <row r="14" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="14" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A14" s="9" t="s">
         <v>13</v>
       </c>
@@ -1717,7 +1859,7 @@
         <v>0.85299999999999998</v>
       </c>
       <c r="AE14" s="11" t="s">
-        <v>88</v>
+        <v>123</v>
       </c>
       <c r="AF14" s="7"/>
       <c r="AG14" s="7" t="s">
@@ -1730,7 +1872,7 @@
         <v>0.66239999999999999</v>
       </c>
     </row>
-    <row r="15" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="15" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A15" s="9" t="s">
         <v>14</v>
       </c>
@@ -1798,7 +1940,7 @@
         <v>0.82779999999999998</v>
       </c>
       <c r="AE15" s="11" t="s">
-        <v>89</v>
+        <v>124</v>
       </c>
       <c r="AF15" s="7"/>
       <c r="AG15" s="7" t="s">
@@ -1811,7 +1953,7 @@
         <v>0.71209999999999996</v>
       </c>
     </row>
-    <row r="16" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="16" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A16" s="9"/>
       <c r="B16" s="1"/>
       <c r="C16" s="1"/>
@@ -1844,7 +1986,7 @@
       <c r="AH16" s="7"/>
       <c r="AI16" s="8"/>
     </row>
-    <row r="17" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="17" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A17" s="9" t="s">
         <v>15</v>
       </c>
@@ -1922,7 +2064,7 @@
         <v>0.46400000000000002</v>
       </c>
       <c r="AE17" s="11" t="s">
-        <v>90</v>
+        <v>131</v>
       </c>
       <c r="AF17" s="7">
         <v>0</v>
@@ -1937,7 +2079,7 @@
         <v>0.4098</v>
       </c>
     </row>
-    <row r="18" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="18" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A18" s="9" t="s">
         <v>16</v>
       </c>
@@ -2005,7 +2147,7 @@
         <v>0.45269999999999999</v>
       </c>
       <c r="AE18" s="11" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="AF18" s="7"/>
       <c r="AG18" s="7" t="s">
@@ -2018,7 +2160,7 @@
         <v>0.44740000000000002</v>
       </c>
     </row>
-    <row r="19" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="19" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A19" s="9" t="s">
         <v>17</v>
       </c>
@@ -2086,7 +2228,7 @@
         <v>0.48409999999999997</v>
       </c>
       <c r="AE19" s="11" t="s">
-        <v>92</v>
+        <v>133</v>
       </c>
       <c r="AF19" s="7"/>
       <c r="AG19" s="7" t="s">
@@ -2099,7 +2241,7 @@
         <v>0.374</v>
       </c>
     </row>
-    <row r="20" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="20" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A20" s="9"/>
       <c r="B20" s="1"/>
       <c r="C20" s="1"/>
@@ -2132,7 +2274,7 @@
       <c r="AH20" s="7"/>
       <c r="AI20" s="8"/>
     </row>
-    <row r="21" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="21" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A21" s="9" t="s">
         <v>18</v>
       </c>
@@ -2210,7 +2352,7 @@
         <v>0.3866</v>
       </c>
       <c r="AE21" s="11" t="s">
-        <v>93</v>
+        <v>128</v>
       </c>
       <c r="AF21" s="7">
         <v>0</v>
@@ -2225,7 +2367,7 @@
         <v>0.3896</v>
       </c>
     </row>
-    <row r="22" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="22" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A22" s="9" t="s">
         <v>19</v>
       </c>
@@ -2293,7 +2435,7 @@
         <v>0.37880000000000003</v>
       </c>
       <c r="AE22" s="11" t="s">
-        <v>94</v>
+        <v>129</v>
       </c>
       <c r="AF22" s="7"/>
       <c r="AG22" s="7" t="s">
@@ -2306,7 +2448,7 @@
         <v>0.40160000000000001</v>
       </c>
     </row>
-    <row r="23" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="23" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A23" s="9" t="s">
         <v>20</v>
       </c>
@@ -2374,7 +2516,7 @@
         <v>0.3775</v>
       </c>
       <c r="AE23" s="11" t="s">
-        <v>95</v>
+        <v>130</v>
       </c>
       <c r="AF23" s="7"/>
       <c r="AG23" s="7" t="s">
@@ -2387,7 +2529,7 @@
         <v>0.38269999999999998</v>
       </c>
     </row>
-    <row r="24" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="24" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A24" s="9"/>
       <c r="B24" s="1"/>
       <c r="C24" s="1"/>
@@ -2420,7 +2562,7 @@
       <c r="AH24" s="7"/>
       <c r="AI24" s="8"/>
     </row>
-    <row r="25" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="25" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A25" s="9" t="s">
         <v>21</v>
       </c>
@@ -2498,7 +2640,7 @@
         <v>0.31869999999999998</v>
       </c>
       <c r="AE25" s="11" t="s">
-        <v>96</v>
+        <v>125</v>
       </c>
       <c r="AF25" s="7">
         <v>0</v>
@@ -2513,7 +2655,7 @@
         <v>0.35980000000000001</v>
       </c>
     </row>
-    <row r="26" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="26" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A26" s="9" t="s">
         <v>22</v>
       </c>
@@ -2581,7 +2723,7 @@
         <v>0.3372</v>
       </c>
       <c r="AE26" s="11" t="s">
-        <v>97</v>
+        <v>126</v>
       </c>
       <c r="AF26" s="7"/>
       <c r="AG26" s="7" t="s">
@@ -2594,7 +2736,7 @@
         <v>0.31019999999999998</v>
       </c>
     </row>
-    <row r="27" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.35">
+    <row r="27" spans="1:35" s="3" customFormat="1" ht="24" customHeight="1" x14ac:dyDescent="0.25">
       <c r="A27" s="9" t="s">
         <v>23</v>
       </c>
@@ -2662,7 +2804,7 @@
         <v>101</v>
       </c>
       <c r="AE27" s="11" t="s">
-        <v>98</v>
+        <v>127</v>
       </c>
       <c r="AF27" s="7"/>
       <c r="AG27" s="7" t="s">
@@ -2675,7 +2817,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="29" spans="1:35" ht="18" x14ac:dyDescent="0.35">
+    <row r="29" spans="1:35" ht="19" x14ac:dyDescent="0.25">
       <c r="A29" s="16" t="s">
         <v>103</v>
       </c>
@@ -2685,4 +2827,1544 @@
   <pageMargins left="0.25" right="0.25" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="83" orientation="landscape" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8FAAB58F-9B92-DA45-8D83-318F832FD256}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I14" sqref="I14"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <drawing r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778BAD0B-DBB7-2D4F-99C2-43503BB25881}">
+  <dimension ref="A1:E94"/>
+  <sheetViews>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="D89" sqref="D89"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="9" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="9" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="9" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="9" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="9" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="9" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="11" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="11" t="s">
+        <v>28</v>
+      </c>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="11" t="s">
+        <v>30</v>
+      </c>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="13" t="s">
+        <v>46</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="13" t="s">
+        <v>45</v>
+      </c>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="13" t="s">
+        <v>47</v>
+      </c>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="13" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="13" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="13" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="9" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="9" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="9" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="11" t="s">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="11" t="s">
+        <v>118</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="11" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="9" t="s">
+        <v>84</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="9" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="9" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="11" t="s">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="11" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="9" t="s">
+        <v>88</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="9" t="s">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="9" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="11" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="11" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="11" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="13" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="13" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="13" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" s="11" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" s="11" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A87">
+        <v>86</v>
+      </c>
+      <c r="B87" s="9" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A88">
+        <v>87</v>
+      </c>
+      <c r="B88" s="9" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="9" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="91" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+      <c r="B92" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+      <c r="B93" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A94">
+        <v>93</v>
+      </c>
+      <c r="B94" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC3D6C2-0C7C-C74A-92A9-9C750917F0D6}">
+  <dimension ref="A1:E94"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
+      <selection activeCell="E84" sqref="E84"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A1" t="s">
+        <v>105</v>
+      </c>
+      <c r="B1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A3">
+        <v>2</v>
+      </c>
+      <c r="B3" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A4">
+        <v>3</v>
+      </c>
+      <c r="B4" t="s">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A5">
+        <v>4</v>
+      </c>
+      <c r="B5" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A6">
+        <v>5</v>
+      </c>
+      <c r="B6" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A7">
+        <v>6</v>
+      </c>
+      <c r="B7" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A8">
+        <v>7</v>
+      </c>
+      <c r="B8" t="s">
+        <v>108</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A9">
+        <v>8</v>
+      </c>
+      <c r="B9" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A10">
+        <v>9</v>
+      </c>
+      <c r="B10" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A11">
+        <v>10</v>
+      </c>
+      <c r="B11" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A12">
+        <v>11</v>
+      </c>
+      <c r="B12" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A13">
+        <v>12</v>
+      </c>
+      <c r="B13" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A14">
+        <v>13</v>
+      </c>
+      <c r="B14" t="s">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A15">
+        <v>14</v>
+      </c>
+      <c r="B15" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A16">
+        <v>15</v>
+      </c>
+      <c r="B16" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A17">
+        <v>16</v>
+      </c>
+      <c r="B17" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A18">
+        <v>17</v>
+      </c>
+      <c r="B18" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A19">
+        <v>18</v>
+      </c>
+      <c r="B19" t="s">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A20">
+        <v>19</v>
+      </c>
+      <c r="B20" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A21">
+        <v>20</v>
+      </c>
+      <c r="B21" t="s">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A22">
+        <v>21</v>
+      </c>
+      <c r="B22" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A23">
+        <v>22</v>
+      </c>
+      <c r="B23" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A24">
+        <v>23</v>
+      </c>
+      <c r="B24" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A25">
+        <v>24</v>
+      </c>
+      <c r="B25" s="11" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A26">
+        <v>25</v>
+      </c>
+      <c r="B26" s="11" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A27">
+        <v>26</v>
+      </c>
+      <c r="B27" s="11" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A28">
+        <v>27</v>
+      </c>
+      <c r="B28" s="11" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A29">
+        <v>28</v>
+      </c>
+      <c r="B29" s="11" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A30">
+        <v>29</v>
+      </c>
+      <c r="B30" s="11" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A31">
+        <v>30</v>
+      </c>
+      <c r="B31" s="11" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A32">
+        <v>31</v>
+      </c>
+      <c r="B32" s="11" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="33" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A33">
+        <v>32</v>
+      </c>
+      <c r="B33" s="11" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="34" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A34">
+        <v>33</v>
+      </c>
+      <c r="B34" s="9" t="s">
+        <v>96</v>
+      </c>
+    </row>
+    <row r="35" spans="1:5" ht="17" customHeight="1" x14ac:dyDescent="0.2">
+      <c r="A35">
+        <v>34</v>
+      </c>
+      <c r="B35" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>35</v>
+      </c>
+      <c r="B36" t="s">
+        <v>115</v>
+      </c>
+      <c r="E36" s="9"/>
+    </row>
+    <row r="37" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A37">
+        <v>36</v>
+      </c>
+      <c r="B37" s="9" t="s">
+        <v>97</v>
+      </c>
+      <c r="E37" s="9"/>
+    </row>
+    <row r="38" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A38">
+        <v>37</v>
+      </c>
+      <c r="B38" s="9" t="s">
+        <v>98</v>
+      </c>
+      <c r="E38" s="9"/>
+    </row>
+    <row r="39" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>38</v>
+      </c>
+      <c r="B39" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="E39" s="11"/>
+    </row>
+    <row r="40" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A40">
+        <v>39</v>
+      </c>
+      <c r="B40" s="9" t="s">
+        <v>94</v>
+      </c>
+      <c r="E40" s="11"/>
+    </row>
+    <row r="41" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>40</v>
+      </c>
+      <c r="B41" s="9" t="s">
+        <v>95</v>
+      </c>
+      <c r="E41" s="11"/>
+    </row>
+    <row r="42" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>41</v>
+      </c>
+      <c r="B42" s="9" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="43" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>42</v>
+      </c>
+      <c r="B43" s="9" t="s">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="44" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>43</v>
+      </c>
+      <c r="B44" s="9" t="s">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="45" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>44</v>
+      </c>
+      <c r="B45" s="11" t="s">
+        <v>78</v>
+      </c>
+    </row>
+    <row r="46" spans="1:5" ht="19" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>45</v>
+      </c>
+      <c r="B46" s="11" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="47" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A47">
+        <v>46</v>
+      </c>
+      <c r="B47" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="48" spans="1:5" x14ac:dyDescent="0.2">
+      <c r="A48">
+        <v>47</v>
+      </c>
+      <c r="B48" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>48</v>
+      </c>
+      <c r="B49" s="11" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>49</v>
+      </c>
+      <c r="B50" s="11" t="s">
+        <v>75</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>50</v>
+      </c>
+      <c r="B51" s="11" t="s">
+        <v>76</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>51</v>
+      </c>
+      <c r="B52" s="11" t="s">
+        <v>77</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>52</v>
+      </c>
+      <c r="B53" s="11" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>53</v>
+      </c>
+      <c r="B54" s="11" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>54</v>
+      </c>
+      <c r="B55" s="11" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>55</v>
+      </c>
+      <c r="B56" s="13" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>56</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>57</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A59">
+        <v>58</v>
+      </c>
+      <c r="B59" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A60">
+        <v>59</v>
+      </c>
+      <c r="B60" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" ht="29" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>60</v>
+      </c>
+      <c r="B61" s="13" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" ht="21" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>61</v>
+      </c>
+      <c r="B62" s="13" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>62</v>
+      </c>
+      <c r="B63" s="13" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>63</v>
+      </c>
+      <c r="B64" s="13" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>64</v>
+      </c>
+      <c r="B65" s="13" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>65</v>
+      </c>
+      <c r="B66" s="13" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>66</v>
+      </c>
+      <c r="B67" s="11" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>67</v>
+      </c>
+      <c r="B68" s="11" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>68</v>
+      </c>
+      <c r="B69" s="11" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>69</v>
+      </c>
+      <c r="B70" s="11" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A71">
+        <v>70</v>
+      </c>
+      <c r="B71" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A72">
+        <v>71</v>
+      </c>
+      <c r="B72" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A73">
+        <v>72</v>
+      </c>
+      <c r="B73" s="11" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A74">
+        <v>73</v>
+      </c>
+      <c r="B74" s="11" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A75">
+        <v>74</v>
+      </c>
+      <c r="B75" s="9" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A76">
+        <v>75</v>
+      </c>
+      <c r="B76" s="9" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A77">
+        <v>76</v>
+      </c>
+      <c r="B77" s="9" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A78">
+        <v>77</v>
+      </c>
+      <c r="B78" s="9" t="s">
+        <v>18</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A79">
+        <v>78</v>
+      </c>
+      <c r="B79" s="9" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A80">
+        <v>79</v>
+      </c>
+      <c r="B80" s="9" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A81">
+        <v>80</v>
+      </c>
+      <c r="B81" s="11" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A82">
+        <v>81</v>
+      </c>
+      <c r="B82" s="11" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A83">
+        <v>82</v>
+      </c>
+      <c r="B83" s="11" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84">
+        <v>83</v>
+      </c>
+      <c r="B84" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="86" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A86">
+        <v>85</v>
+      </c>
+      <c r="B86" s="9" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88">
+        <v>87</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A89">
+        <v>88</v>
+      </c>
+      <c r="B89" s="9"/>
+    </row>
+    <row r="90" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A90">
+        <v>89</v>
+      </c>
+      <c r="B90" s="9"/>
+    </row>
+    <row r="91" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="A91">
+        <v>90</v>
+      </c>
+      <c r="B91" s="9"/>
+    </row>
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A92">
+        <v>91</v>
+      </c>
+    </row>
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A93">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A94">
+        <v>93</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Data/SampleList.xlsx
+++ b/Data/SampleList.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/myer056/GitHub/tempest_ionic_strength/Data/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{CDE7CAB3-64C6-7946-B98D-D98928048366}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4AEC13DB-9D07-9042-81CA-613738D298DB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="580" yWindow="-21100" windowWidth="31140" windowHeight="16500" activeTab="3" xr2:uid="{CD2106DC-15C8-495D-8D19-EEA12ED135EC}"/>
+    <workbookView xWindow="580" yWindow="-21100" windowWidth="31140" windowHeight="16500" activeTab="2" xr2:uid="{CD2106DC-15C8-495D-8D19-EEA12ED135EC}"/>
   </bookViews>
   <sheets>
     <sheet name="Sample List" sheetId="8" r:id="rId1"/>
@@ -42,7 +42,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="434" uniqueCount="134">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="436" uniqueCount="134">
   <si>
     <t>A</t>
   </si>
@@ -953,7 +953,7 @@
   </sheetPr>
   <dimension ref="A3:AI29"/>
   <sheetViews>
-    <sheetView topLeftCell="A10" workbookViewId="0">
+    <sheetView topLeftCell="A9" workbookViewId="0">
       <selection activeCell="A21" sqref="A21:A23"/>
     </sheetView>
   </sheetViews>
@@ -2848,8 +2848,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{778BAD0B-DBB7-2D4F-99C2-43503BB25881}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView topLeftCell="A69" workbookViewId="0">
-      <selection activeCell="D89" sqref="D89"/>
+    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
+      <selection activeCell="F86" sqref="F86"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -3564,20 +3564,20 @@
         <v>14</v>
       </c>
     </row>
-    <row r="89" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="9" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="90" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="9" t="s">
-        <v>17</v>
+      <c r="B90" t="s">
+        <v>115</v>
       </c>
     </row>
     <row r="91" spans="1:2" ht="19" x14ac:dyDescent="0.25">
@@ -3585,31 +3585,22 @@
         <v>90</v>
       </c>
       <c r="B91" s="9" t="s">
-        <v>15</v>
+        <v>114</v>
       </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
         <v>91</v>
       </c>
-      <c r="B92" t="s">
-        <v>114</v>
-      </c>
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93">
         <v>92</v>
       </c>
-      <c r="B93" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="94" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    </row>
+    <row r="94" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A94">
         <v>93</v>
-      </c>
-      <c r="B94" s="9" t="s">
-        <v>114</v>
       </c>
     </row>
   </sheetData>
@@ -3621,8 +3612,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DFC3D6C2-0C7C-C74A-92A9-9C750917F0D6}">
   <dimension ref="A1:E94"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A70" workbookViewId="0">
-      <selection activeCell="E84" sqref="E84"/>
+    <sheetView topLeftCell="A31" workbookViewId="0">
+      <selection activeCell="H84" sqref="H84"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -4289,12 +4280,12 @@
         <v>37</v>
       </c>
     </row>
-    <row r="83" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A83">
         <v>82</v>
       </c>
-      <c r="B83" s="11" t="s">
-        <v>38</v>
+      <c r="B83" t="s">
+        <v>114</v>
       </c>
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.2">
@@ -4302,15 +4293,15 @@
         <v>83</v>
       </c>
       <c r="B84" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A85">
         <v>84</v>
       </c>
-      <c r="B85" t="s">
-        <v>115</v>
+      <c r="B85" s="11" t="s">
+        <v>38</v>
       </c>
     </row>
     <row r="86" spans="1:2" ht="19" x14ac:dyDescent="0.25">
@@ -4318,36 +4309,48 @@
         <v>85</v>
       </c>
       <c r="B86" s="9" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="87" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A87">
         <v>86</v>
       </c>
-    </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="B87" s="9" t="s">
+        <v>17</v>
+      </c>
+    </row>
+    <row r="88" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A88">
         <v>87</v>
       </c>
-    </row>
-    <row r="89" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B88" s="9" t="s">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A89">
         <v>88</v>
       </c>
-      <c r="B89" s="9"/>
-    </row>
-    <row r="90" spans="1:2" ht="19" x14ac:dyDescent="0.25">
+      <c r="B89" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="90" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A90">
         <v>89</v>
       </c>
-      <c r="B90" s="9"/>
+      <c r="B90" t="s">
+        <v>115</v>
+      </c>
     </row>
     <row r="91" spans="1:2" ht="19" x14ac:dyDescent="0.25">
       <c r="A91">
         <v>90</v>
       </c>
-      <c r="B91" s="9"/>
+      <c r="B91" s="9" t="s">
+        <v>114</v>
+      </c>
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92">
